--- a/analiticosxlsx/316.xlsx
+++ b/analiticosxlsx/316.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josemora/Documents/Github/Scrapers/Presupuesto 2023/analiticosxlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A854F7E-C8B5-D74F-ACA6-77C80F27E170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA2CEC4-FBB6-4A4E-86CE-D4A4E957A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1660" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <r>
       <rPr>
@@ -963,101 +963,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">4.929.711
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>50.000.000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4.929.711
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.047.556</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">5.240.283
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>50.000.000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-601.435
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-50.000.000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-11,5%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-100,0%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Gasto de Estado de Operaciones*</t>
     </r>
   </si>
@@ -1072,7 +977,14 @@
     </r>
   </si>
   <si>
-    <t>Fondo de Desarrollo de Magallanes Inversión por Distribuir</t>
+    <t>Fondo de Desarrollo de Magallanes</t>
+  </si>
+  <si>
+    <t>Inversión por Distribuir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+50.000.000</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +997,7 @@
     <numFmt numFmtId="166" formatCode="00"/>
     <numFmt numFmtId="167" formatCode="000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1105,6 +1017,12 @@
     </font>
     <font>
       <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1280,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1395,14 +1313,35 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1455,15 +1394,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
     </xf>
@@ -1471,30 +1431,6 @@
       <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1518,12 +1454,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1536,32 +1466,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,17 +1828,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="4.59765625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="7" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
     <col min="8" max="8" width="10.3984375" customWidth="1"/>
     <col min="9" max="9" width="5.796875" customWidth="1"/>
     <col min="10" max="10" width="17.3984375" customWidth="1"/>
@@ -1927,33 +1856,33 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -1963,12 +1892,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
@@ -1984,10 +1913,10 @@
       <c r="G4" s="4">
         <v>-3</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="53">
         <v>-4</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4">
         <v>-5</v>
       </c>
@@ -2019,10 +1948,10 @@
       <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2031,10 +1960,10 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
         <v>9</v>
@@ -2048,10 +1977,10 @@
       <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
@@ -2064,8 +1993,8 @@
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="12" t="s">
@@ -2077,10 +2006,10 @@
       <c r="G7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="51"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="13" t="s">
         <v>18</v>
       </c>
@@ -2093,8 +2022,8 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="12" t="s">
@@ -2106,10 +2035,10 @@
       <c r="G8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="51"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2122,8 +2051,8 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16" t="s">
@@ -2135,10 +2064,10 @@
       <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="16" t="s">
         <v>28</v>
       </c>
@@ -2164,10 +2093,10 @@
       <c r="G10" s="19">
         <v>572973390</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="73">
         <v>1510647229</v>
       </c>
-      <c r="I10" s="59"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="19">
         <v>1500619989</v>
       </c>
@@ -2188,7 +2117,7 @@
       <c r="D11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="44">
         <v>469272</v>
       </c>
       <c r="F11" s="23">
@@ -2197,10 +2126,10 @@
       <c r="G11" s="23">
         <v>136093</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="75">
         <v>469272</v>
       </c>
-      <c r="I11" s="62"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="3"/>
       <c r="K11" s="23">
         <v>-469272</v>
@@ -2219,7 +2148,7 @@
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="45">
         <v>4561847</v>
       </c>
       <c r="F12" s="26">
@@ -2228,10 +2157,10 @@
       <c r="G12" s="26">
         <v>10251726</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="65">
         <v>4849243</v>
       </c>
-      <c r="I12" s="64"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="7"/>
       <c r="K12" s="26">
         <v>-4849243</v>
@@ -2250,7 +2179,7 @@
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="43">
         <v>160</v>
       </c>
       <c r="F13" s="28">
@@ -2259,10 +2188,10 @@
       <c r="G13" s="26">
         <v>1046122</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="71">
         <v>160</v>
       </c>
-      <c r="I13" s="66"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="7"/>
       <c r="K13" s="28">
         <v>-160</v>
@@ -2281,7 +2210,7 @@
       <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="45">
         <v>4561687</v>
       </c>
       <c r="F14" s="26">
@@ -2290,10 +2219,10 @@
       <c r="G14" s="26">
         <v>9205604</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="65">
         <v>4849083</v>
       </c>
-      <c r="I14" s="64"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="7"/>
       <c r="K14" s="26">
         <v>-4849083</v>
@@ -2312,7 +2241,7 @@
       <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="45">
         <v>432361282</v>
       </c>
       <c r="F15" s="26">
@@ -2345,7 +2274,7 @@
       <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="45">
         <v>432361282</v>
       </c>
       <c r="F16" s="26">
@@ -2378,7 +2307,7 @@
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="91">
+      <c r="E17" s="43">
         <v>160</v>
       </c>
       <c r="F17" s="28">
@@ -2387,10 +2316,10 @@
       <c r="G17" s="26">
         <v>866394</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="71">
         <v>160</v>
       </c>
-      <c r="I17" s="66"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="7"/>
       <c r="K17" s="28">
         <v>-160</v>
@@ -2409,7 +2338,7 @@
       <c r="D18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="43">
         <v>160</v>
       </c>
       <c r="F18" s="28">
@@ -2418,10 +2347,10 @@
       <c r="G18" s="26">
         <v>866394</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="71">
         <v>160</v>
       </c>
-      <c r="I18" s="66"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="7"/>
       <c r="K18" s="28">
         <v>-160</v>
@@ -2440,7 +2369,7 @@
       <c r="D19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="93">
+      <c r="E19" s="45">
         <v>934667880</v>
       </c>
       <c r="F19" s="26">
@@ -2473,7 +2402,7 @@
       <c r="D20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="45">
         <v>2135834</v>
       </c>
       <c r="F20" s="26">
@@ -2482,10 +2411,10 @@
       <c r="G20" s="26">
         <v>3057476</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="65">
         <v>2270392</v>
       </c>
-      <c r="I20" s="64"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="7"/>
       <c r="K20" s="26">
         <v>-2270392</v>
@@ -2504,7 +2433,7 @@
       <c r="D21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="45">
         <v>2135834</v>
       </c>
       <c r="F21" s="26">
@@ -2513,10 +2442,10 @@
       <c r="G21" s="26">
         <v>3057476</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="65">
         <v>2270392</v>
       </c>
-      <c r="I21" s="64"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="7"/>
       <c r="K21" s="26">
         <v>-2270392</v>
@@ -2535,7 +2464,7 @@
       <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="45">
         <v>932532046</v>
       </c>
       <c r="F22" s="26">
@@ -2568,7 +2497,7 @@
       <c r="D23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="93">
+      <c r="E23" s="45">
         <v>13894223</v>
       </c>
       <c r="F23" s="26">
@@ -2599,7 +2528,7 @@
       <c r="D24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="93"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="26">
         <v>2860371</v>
       </c>
@@ -2620,7 +2549,7 @@
       <c r="D25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="93">
+      <c r="E25" s="45">
         <v>29572373</v>
       </c>
       <c r="F25" s="26">
@@ -2651,17 +2580,17 @@
       <c r="D26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="93">
+      <c r="E26" s="45">
         <v>4929711</v>
       </c>
       <c r="F26" s="26">
         <v>4929711</v>
       </c>
       <c r="G26" s="31"/>
-      <c r="H26" s="63">
+      <c r="H26" s="65">
         <v>5240283</v>
       </c>
-      <c r="I26" s="64"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="26">
         <v>4638848</v>
       </c>
@@ -2682,7 +2611,7 @@
       <c r="D27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="93">
+      <c r="E27" s="45">
         <v>8800978</v>
       </c>
       <c r="F27" s="26">
@@ -2691,10 +2620,10 @@
       <c r="G27" s="26">
         <v>24459798</v>
       </c>
-      <c r="H27" s="63">
+      <c r="H27" s="65">
         <v>9355440</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="26">
         <v>38301026</v>
       </c>
@@ -2715,17 +2644,17 @@
       <c r="D28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="93">
+      <c r="E28" s="45">
         <v>188255</v>
       </c>
       <c r="F28" s="26">
         <v>188255</v>
       </c>
       <c r="G28" s="31"/>
-      <c r="H28" s="71">
+      <c r="H28" s="77">
         <v>200115</v>
       </c>
-      <c r="I28" s="72"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="26">
         <v>197128</v>
       </c>
@@ -2746,7 +2675,7 @@
       <c r="D29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="93">
+      <c r="E29" s="45">
         <v>16118108</v>
       </c>
       <c r="F29" s="26">
@@ -2777,7 +2706,7 @@
       <c r="D30" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="93">
+      <c r="E30" s="45">
         <v>38851525</v>
       </c>
       <c r="F30" s="26">
@@ -2808,17 +2737,17 @@
       <c r="D31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="93">
+      <c r="E31" s="45">
         <v>6426231</v>
       </c>
       <c r="F31" s="26">
         <v>6426231</v>
       </c>
       <c r="G31" s="31"/>
-      <c r="H31" s="63">
+      <c r="H31" s="65">
         <v>6831084</v>
       </c>
-      <c r="I31" s="64"/>
+      <c r="I31" s="66"/>
       <c r="J31" s="26">
         <v>7437899</v>
       </c>
@@ -2839,7 +2768,7 @@
       <c r="D32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="93">
+      <c r="E32" s="45">
         <v>518418739</v>
       </c>
       <c r="F32" s="26">
@@ -2872,7 +2801,7 @@
       <c r="D33" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="93">
+      <c r="E33" s="45">
         <v>258455771</v>
       </c>
       <c r="F33" s="26">
@@ -2901,11 +2830,11 @@
       <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="93"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -2920,7 +2849,7 @@
       <c r="D35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="93">
+      <c r="E35" s="45">
         <v>24710192</v>
       </c>
       <c r="F35" s="26">
@@ -2949,7 +2878,7 @@
       <c r="D36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="93"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
       <c r="H36" s="69"/>
@@ -2974,7 +2903,7 @@
       <c r="D37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="93">
+      <c r="E37" s="45">
         <v>12165940</v>
       </c>
       <c r="F37" s="26">
@@ -3005,17 +2934,17 @@
       <c r="D38" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="93">
+      <c r="E38" s="45">
         <v>52047556</v>
       </c>
       <c r="F38" s="36">
         <v>45812460</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="75">
+      <c r="H38" s="81">
         <v>52176553</v>
       </c>
-      <c r="I38" s="76"/>
+      <c r="I38" s="82"/>
       <c r="J38" s="15"/>
       <c r="K38" s="36">
         <v>-52176553</v>
@@ -3033,33 +2962,33 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
     </row>
     <row r="40" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
@@ -3069,12 +2998,12 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
     </row>
     <row r="42" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
@@ -3090,10 +3019,10 @@
       <c r="G42" s="4">
         <v>-3</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="53">
         <v>-4</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="54"/>
       <c r="J42" s="4">
         <v>-5</v>
       </c>
@@ -3125,10 +3054,10 @@
       <c r="G43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="49"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="8" t="s">
         <v>7</v>
       </c>
@@ -3137,10 +3066,10 @@
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="7"/>
       <c r="D44" s="9" t="s">
         <v>9</v>
@@ -3154,10 +3083,10 @@
       <c r="G44" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="52" t="s">
+      <c r="H44" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="53"/>
+      <c r="I44" s="60"/>
       <c r="J44" s="10" t="s">
         <v>13</v>
       </c>
@@ -3170,8 +3099,8 @@
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="12" t="s">
@@ -3183,10 +3112,10 @@
       <c r="G45" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="51"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="13" t="s">
         <v>18</v>
       </c>
@@ -3199,8 +3128,8 @@
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="12" t="s">
@@ -3212,10 +3141,10 @@
       <c r="G46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="51"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="6" t="s">
         <v>24</v>
       </c>
@@ -3228,8 +3157,8 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="16" t="s">
@@ -3241,10 +3170,10 @@
       <c r="G47" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="57"/>
+      <c r="I47" s="64"/>
       <c r="J47" s="16" t="s">
         <v>28</v>
       </c>
@@ -3270,10 +3199,10 @@
       <c r="G48" s="19">
         <v>536272578</v>
       </c>
-      <c r="H48" s="58">
+      <c r="H48" s="73">
         <v>1510647229</v>
       </c>
-      <c r="I48" s="59"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="19">
         <v>1500619989</v>
       </c>
@@ -3286,9 +3215,11 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
+      <c r="A49" s="46">
+        <v>900</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="22" t="s">
         <v>59</v>
       </c>
@@ -3301,10 +3232,10 @@
       <c r="G49" s="23">
         <v>20619149</v>
       </c>
-      <c r="H49" s="77">
+      <c r="H49" s="83">
         <v>54387658</v>
       </c>
-      <c r="I49" s="78"/>
+      <c r="I49" s="84"/>
       <c r="J49" s="23">
         <v>55943320</v>
       </c>
@@ -3317,9 +3248,11 @@
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="46">
+        <v>901</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="6" t="s">
         <v>60</v>
       </c>
@@ -3348,9 +3281,11 @@
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
+      <c r="A51" s="46">
+        <v>902</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="6" t="s">
         <v>61</v>
       </c>
@@ -3379,9 +3314,11 @@
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="46">
+        <v>903</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="6" t="s">
         <v>62</v>
       </c>
@@ -3410,9 +3347,11 @@
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="46">
+        <v>904</v>
+      </c>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="6" t="s">
         <v>63</v>
       </c>
@@ -3441,9 +3380,11 @@
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="46">
+        <v>905</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="6" t="s">
         <v>64</v>
       </c>
@@ -3472,9 +3413,11 @@
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
+      <c r="A55" s="46">
+        <v>906</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="6" t="s">
         <v>65</v>
       </c>
@@ -3503,9 +3446,11 @@
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
+      <c r="A56" s="46">
+        <v>907</v>
+      </c>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="6" t="s">
         <v>66</v>
       </c>
@@ -3534,9 +3479,11 @@
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="46">
+        <v>908</v>
+      </c>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="6" t="s">
         <v>67</v>
       </c>
@@ -3565,9 +3512,11 @@
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
+      <c r="A58" s="46">
+        <v>909</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="6" t="s">
         <v>68</v>
       </c>
@@ -3596,9 +3545,11 @@
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
+      <c r="A59" s="46">
+        <v>910</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="6" t="s">
         <v>69</v>
       </c>
@@ -3627,9 +3578,11 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
+      <c r="A60" s="46">
+        <v>911</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="6" t="s">
         <v>70</v>
       </c>
@@ -3658,9 +3611,11 @@
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
+      <c r="A61" s="46">
+        <v>912</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="6" t="s">
         <v>71</v>
       </c>
@@ -3689,9 +3644,11 @@
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
+      <c r="A62" s="46">
+        <v>913</v>
+      </c>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="6" t="s">
         <v>72</v>
       </c>
@@ -3720,9 +3677,11 @@
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
+      <c r="A63" s="46">
+        <v>914</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="6" t="s">
         <v>73</v>
       </c>
@@ -3751,9 +3710,11 @@
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="46">
+        <v>915</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="6" t="s">
         <v>74</v>
       </c>
@@ -3782,9 +3743,11 @@
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
+      <c r="A65" s="46">
+        <v>916</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="6" t="s">
         <v>75</v>
       </c>
@@ -3807,9 +3770,11 @@
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
+      <c r="A66" s="46">
+        <v>917</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="11" t="s">
         <v>76</v>
       </c>
@@ -3818,10 +3783,10 @@
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
-      <c r="H66" s="63">
+      <c r="H66" s="65">
         <v>7298014</v>
       </c>
-      <c r="I66" s="64"/>
+      <c r="I66" s="66"/>
       <c r="J66" s="26">
         <v>7298014</v>
       </c>
@@ -3831,143 +3796,172 @@
       </c>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
+    <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="46">
+        <v>918</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="E67" s="90">
+        <v>4929711</v>
+      </c>
+      <c r="F67" s="91">
+        <v>4929711</v>
       </c>
       <c r="G67" s="36">
         <v>866341</v>
       </c>
-      <c r="H67" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="I67" s="80"/>
+      <c r="H67" s="94">
+        <v>5240283</v>
+      </c>
+      <c r="I67" s="92"/>
       <c r="J67" s="36">
         <v>4638848</v>
       </c>
-      <c r="K67" s="40" t="s">
+      <c r="K67" s="95">
+        <v>-601435</v>
+      </c>
+      <c r="L67" s="96">
+        <v>-0.115</v>
+      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="46">
+        <v>919</v>
+      </c>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L67" s="39" t="s">
+      <c r="E68" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="85"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="88"/>
+      <c r="F68" s="93">
+        <v>2047556</v>
+      </c>
+      <c r="G68" s="36"/>
+      <c r="H68" s="94">
+        <v>50000000</v>
+      </c>
+      <c r="I68" s="92"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="95">
+        <v>-50000000</v>
+      </c>
+      <c r="L68" s="96">
+        <v>-1</v>
+      </c>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="82"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="19">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="19">
         <v>1424107997</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F71" s="19">
         <v>1399218636</v>
       </c>
-      <c r="G70" s="19">
+      <c r="G71" s="19">
         <v>536272578</v>
       </c>
-      <c r="H70" s="58">
+      <c r="H71" s="73">
         <v>1510647229</v>
       </c>
-      <c r="I70" s="59"/>
-      <c r="J70" s="19">
+      <c r="I71" s="74"/>
+      <c r="J71" s="19">
         <v>1500619989</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K71" s="19">
         <v>-10027240</v>
       </c>
-      <c r="L70" s="20">
+      <c r="L71" s="20">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="M70" s="5"/>
-    </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="H66:I66"/>
+  <mergeCells count="77">
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:M72"/>
     <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:M71"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:A67"/>
-    <mergeCell ref="B49:B67"/>
-    <mergeCell ref="C49:C67"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="H45:I45"/>
